--- a/xlsx/馬來西亞_intext.xlsx
+++ b/xlsx/馬來西亞_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2408">
   <si>
     <t>馬來西亞</t>
   </si>
@@ -29,7 +29,7 @@
     <t>马来西亚国旗</t>
   </si>
   <si>
-    <t>政策_政策_美國_馬來西亞</t>
+    <t>体育运动_体育运动_伊朗_馬來西亞</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%9D%A5%E8%A5%BF%E4%BA%9A%E5%9B%BD%E5%BE%BD</t>
@@ -3672,6 +3672,12 @@
   </si>
   <si>
     <t>马来西亚政府</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/OpenStreetMap</t>
+  </si>
+  <si>
+    <t>OpenStreetMap</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/WikiMapia</t>
@@ -7581,7 +7587,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1305"/>
+  <dimension ref="A1:I1306"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12826,7 +12832,7 @@
         <v>338</v>
       </c>
       <c r="G181" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H181" t="s">
         <v>4</v>
@@ -14334,7 +14340,7 @@
         <v>438</v>
       </c>
       <c r="G233" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H233" t="s">
         <v>4</v>
@@ -26804,7 +26810,7 @@
         <v>1226</v>
       </c>
       <c r="G663" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H663" t="s">
         <v>4</v>
@@ -26833,7 +26839,7 @@
         <v>1228</v>
       </c>
       <c r="G664" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H664" t="s">
         <v>4</v>
@@ -26914,13 +26920,13 @@
         <v>666</v>
       </c>
       <c r="E667" t="s">
-        <v>669</v>
+        <v>1233</v>
       </c>
       <c r="F667" t="s">
-        <v>670</v>
+        <v>1234</v>
       </c>
       <c r="G667" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H667" t="s">
         <v>4</v>
@@ -26943,13 +26949,13 @@
         <v>667</v>
       </c>
       <c r="E668" t="s">
-        <v>1233</v>
+        <v>669</v>
       </c>
       <c r="F668" t="s">
-        <v>1234</v>
+        <v>670</v>
       </c>
       <c r="G668" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H668" t="s">
         <v>4</v>
@@ -26972,13 +26978,13 @@
         <v>668</v>
       </c>
       <c r="E669" t="s">
-        <v>717</v>
+        <v>1235</v>
       </c>
       <c r="F669" t="s">
-        <v>718</v>
+        <v>1236</v>
       </c>
       <c r="G669" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H669" t="s">
         <v>4</v>
@@ -27001,13 +27007,13 @@
         <v>669</v>
       </c>
       <c r="E670" t="s">
-        <v>1235</v>
+        <v>717</v>
       </c>
       <c r="F670" t="s">
-        <v>1236</v>
+        <v>718</v>
       </c>
       <c r="G670" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H670" t="s">
         <v>4</v>
@@ -27030,13 +27036,13 @@
         <v>670</v>
       </c>
       <c r="E671" t="s">
-        <v>267</v>
+        <v>1237</v>
       </c>
       <c r="F671" t="s">
-        <v>268</v>
+        <v>1238</v>
       </c>
       <c r="G671" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H671" t="s">
         <v>4</v>
@@ -27059,10 +27065,10 @@
         <v>671</v>
       </c>
       <c r="E672" t="s">
-        <v>1237</v>
+        <v>267</v>
       </c>
       <c r="F672" t="s">
-        <v>1238</v>
+        <v>268</v>
       </c>
       <c r="G672" t="n">
         <v>1</v>
@@ -27123,7 +27129,7 @@
         <v>1242</v>
       </c>
       <c r="G674" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H674" t="s">
         <v>4</v>
@@ -27146,13 +27152,13 @@
         <v>674</v>
       </c>
       <c r="E675" t="s">
-        <v>321</v>
+        <v>1243</v>
       </c>
       <c r="F675" t="s">
-        <v>322</v>
+        <v>1244</v>
       </c>
       <c r="G675" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H675" t="s">
         <v>4</v>
@@ -27175,13 +27181,13 @@
         <v>675</v>
       </c>
       <c r="E676" t="s">
-        <v>1243</v>
+        <v>321</v>
       </c>
       <c r="F676" t="s">
-        <v>1244</v>
+        <v>322</v>
       </c>
       <c r="G676" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H676" t="s">
         <v>4</v>
@@ -27210,7 +27216,7 @@
         <v>1246</v>
       </c>
       <c r="G677" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H677" t="s">
         <v>4</v>
@@ -27239,7 +27245,7 @@
         <v>1248</v>
       </c>
       <c r="G678" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H678" t="s">
         <v>4</v>
@@ -27268,7 +27274,7 @@
         <v>1250</v>
       </c>
       <c r="G679" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H679" t="s">
         <v>4</v>
@@ -27297,7 +27303,7 @@
         <v>1252</v>
       </c>
       <c r="G680" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H680" t="s">
         <v>4</v>
@@ -27326,7 +27332,7 @@
         <v>1254</v>
       </c>
       <c r="G681" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H681" t="s">
         <v>4</v>
@@ -27355,7 +27361,7 @@
         <v>1256</v>
       </c>
       <c r="G682" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H682" t="s">
         <v>4</v>
@@ -27384,7 +27390,7 @@
         <v>1258</v>
       </c>
       <c r="G683" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H683" t="s">
         <v>4</v>
@@ -27500,7 +27506,7 @@
         <v>1266</v>
       </c>
       <c r="G687" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H687" t="s">
         <v>4</v>
@@ -27529,7 +27535,7 @@
         <v>1268</v>
       </c>
       <c r="G688" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H688" t="s">
         <v>4</v>
@@ -27703,7 +27709,7 @@
         <v>1280</v>
       </c>
       <c r="G694" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H694" t="s">
         <v>4</v>
@@ -27732,7 +27738,7 @@
         <v>1282</v>
       </c>
       <c r="G695" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H695" t="s">
         <v>4</v>
@@ -27761,7 +27767,7 @@
         <v>1284</v>
       </c>
       <c r="G696" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H696" t="s">
         <v>4</v>
@@ -27790,7 +27796,7 @@
         <v>1286</v>
       </c>
       <c r="G697" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H697" t="s">
         <v>4</v>
@@ -27819,7 +27825,7 @@
         <v>1288</v>
       </c>
       <c r="G698" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H698" t="s">
         <v>4</v>
@@ -27848,7 +27854,7 @@
         <v>1290</v>
       </c>
       <c r="G699" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H699" t="s">
         <v>4</v>
@@ -27877,7 +27883,7 @@
         <v>1292</v>
       </c>
       <c r="G700" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H700" t="s">
         <v>4</v>
@@ -27906,7 +27912,7 @@
         <v>1294</v>
       </c>
       <c r="G701" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H701" t="s">
         <v>4</v>
@@ -28022,7 +28028,7 @@
         <v>1302</v>
       </c>
       <c r="G705" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H705" t="s">
         <v>4</v>
@@ -28051,7 +28057,7 @@
         <v>1304</v>
       </c>
       <c r="G706" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H706" t="s">
         <v>4</v>
@@ -28109,7 +28115,7 @@
         <v>1308</v>
       </c>
       <c r="G708" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H708" t="s">
         <v>4</v>
@@ -28138,7 +28144,7 @@
         <v>1310</v>
       </c>
       <c r="G709" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H709" t="s">
         <v>4</v>
@@ -28196,7 +28202,7 @@
         <v>1314</v>
       </c>
       <c r="G711" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H711" t="s">
         <v>4</v>
@@ -28225,7 +28231,7 @@
         <v>1316</v>
       </c>
       <c r="G712" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H712" t="s">
         <v>4</v>
@@ -28283,7 +28289,7 @@
         <v>1320</v>
       </c>
       <c r="G714" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H714" t="s">
         <v>4</v>
@@ -28312,7 +28318,7 @@
         <v>1322</v>
       </c>
       <c r="G715" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H715" t="s">
         <v>4</v>
@@ -28370,7 +28376,7 @@
         <v>1326</v>
       </c>
       <c r="G717" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H717" t="s">
         <v>4</v>
@@ -28399,7 +28405,7 @@
         <v>1328</v>
       </c>
       <c r="G718" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H718" t="s">
         <v>4</v>
@@ -28428,7 +28434,7 @@
         <v>1330</v>
       </c>
       <c r="G719" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H719" t="s">
         <v>4</v>
@@ -28457,7 +28463,7 @@
         <v>1332</v>
       </c>
       <c r="G720" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H720" t="s">
         <v>4</v>
@@ -28486,7 +28492,7 @@
         <v>1334</v>
       </c>
       <c r="G721" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H721" t="s">
         <v>4</v>
@@ -28544,7 +28550,7 @@
         <v>1338</v>
       </c>
       <c r="G723" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H723" t="s">
         <v>4</v>
@@ -28573,7 +28579,7 @@
         <v>1340</v>
       </c>
       <c r="G724" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H724" t="s">
         <v>4</v>
@@ -28631,7 +28637,7 @@
         <v>1344</v>
       </c>
       <c r="G726" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H726" t="s">
         <v>4</v>
@@ -28660,7 +28666,7 @@
         <v>1346</v>
       </c>
       <c r="G727" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H727" t="s">
         <v>4</v>
@@ -28689,7 +28695,7 @@
         <v>1348</v>
       </c>
       <c r="G728" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H728" t="s">
         <v>4</v>
@@ -28718,7 +28724,7 @@
         <v>1350</v>
       </c>
       <c r="G729" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H729" t="s">
         <v>4</v>
@@ -28747,7 +28753,7 @@
         <v>1352</v>
       </c>
       <c r="G730" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H730" t="s">
         <v>4</v>
@@ -28776,7 +28782,7 @@
         <v>1354</v>
       </c>
       <c r="G731" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H731" t="s">
         <v>4</v>
@@ -28805,7 +28811,7 @@
         <v>1356</v>
       </c>
       <c r="G732" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H732" t="s">
         <v>4</v>
@@ -28834,7 +28840,7 @@
         <v>1358</v>
       </c>
       <c r="G733" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H733" t="s">
         <v>4</v>
@@ -28863,7 +28869,7 @@
         <v>1360</v>
       </c>
       <c r="G734" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H734" t="s">
         <v>4</v>
@@ -28979,7 +28985,7 @@
         <v>1368</v>
       </c>
       <c r="G738" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H738" t="s">
         <v>4</v>
@@ -29008,7 +29014,7 @@
         <v>1370</v>
       </c>
       <c r="G739" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H739" t="s">
         <v>4</v>
@@ -29037,7 +29043,7 @@
         <v>1372</v>
       </c>
       <c r="G740" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H740" t="s">
         <v>4</v>
@@ -29066,7 +29072,7 @@
         <v>1374</v>
       </c>
       <c r="G741" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H741" t="s">
         <v>4</v>
@@ -29095,7 +29101,7 @@
         <v>1376</v>
       </c>
       <c r="G742" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H742" t="s">
         <v>4</v>
@@ -29124,7 +29130,7 @@
         <v>1378</v>
       </c>
       <c r="G743" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H743" t="s">
         <v>4</v>
@@ -29153,7 +29159,7 @@
         <v>1380</v>
       </c>
       <c r="G744" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H744" t="s">
         <v>4</v>
@@ -29182,7 +29188,7 @@
         <v>1382</v>
       </c>
       <c r="G745" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H745" t="s">
         <v>4</v>
@@ -29240,7 +29246,7 @@
         <v>1386</v>
       </c>
       <c r="G747" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H747" t="s">
         <v>4</v>
@@ -29269,7 +29275,7 @@
         <v>1388</v>
       </c>
       <c r="G748" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H748" t="s">
         <v>4</v>
@@ -29298,7 +29304,7 @@
         <v>1390</v>
       </c>
       <c r="G749" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H749" t="s">
         <v>4</v>
@@ -29356,7 +29362,7 @@
         <v>1394</v>
       </c>
       <c r="G751" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H751" t="s">
         <v>4</v>
@@ -29385,7 +29391,7 @@
         <v>1396</v>
       </c>
       <c r="G752" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H752" t="s">
         <v>4</v>
@@ -29443,7 +29449,7 @@
         <v>1400</v>
       </c>
       <c r="G754" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H754" t="s">
         <v>4</v>
@@ -29472,7 +29478,7 @@
         <v>1402</v>
       </c>
       <c r="G755" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H755" t="s">
         <v>4</v>
@@ -29733,7 +29739,7 @@
         <v>1420</v>
       </c>
       <c r="G764" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H764" t="s">
         <v>4</v>
@@ -29791,7 +29797,7 @@
         <v>1424</v>
       </c>
       <c r="G766" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H766" t="s">
         <v>4</v>
@@ -29878,7 +29884,7 @@
         <v>1430</v>
       </c>
       <c r="G769" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H769" t="s">
         <v>4</v>
@@ -29907,7 +29913,7 @@
         <v>1432</v>
       </c>
       <c r="G770" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H770" t="s">
         <v>4</v>
@@ -30226,7 +30232,7 @@
         <v>1454</v>
       </c>
       <c r="G781" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H781" t="s">
         <v>4</v>
@@ -30255,7 +30261,7 @@
         <v>1456</v>
       </c>
       <c r="G782" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H782" t="s">
         <v>4</v>
@@ -30284,7 +30290,7 @@
         <v>1458</v>
       </c>
       <c r="G783" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H783" t="s">
         <v>4</v>
@@ -30313,7 +30319,7 @@
         <v>1460</v>
       </c>
       <c r="G784" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H784" t="s">
         <v>4</v>
@@ -30342,7 +30348,7 @@
         <v>1462</v>
       </c>
       <c r="G785" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H785" t="s">
         <v>4</v>
@@ -30371,7 +30377,7 @@
         <v>1464</v>
       </c>
       <c r="G786" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H786" t="s">
         <v>4</v>
@@ -30429,7 +30435,7 @@
         <v>1468</v>
       </c>
       <c r="G788" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H788" t="s">
         <v>4</v>
@@ -30458,7 +30464,7 @@
         <v>1470</v>
       </c>
       <c r="G789" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H789" t="s">
         <v>4</v>
@@ -30545,7 +30551,7 @@
         <v>1476</v>
       </c>
       <c r="G792" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H792" t="s">
         <v>4</v>
@@ -30574,7 +30580,7 @@
         <v>1478</v>
       </c>
       <c r="G793" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H793" t="s">
         <v>4</v>
@@ -30632,7 +30638,7 @@
         <v>1482</v>
       </c>
       <c r="G795" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="H795" t="s">
         <v>4</v>
@@ -30661,7 +30667,7 @@
         <v>1484</v>
       </c>
       <c r="G796" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="H796" t="s">
         <v>4</v>
@@ -30690,7 +30696,7 @@
         <v>1486</v>
       </c>
       <c r="G797" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H797" t="s">
         <v>4</v>
@@ -30719,7 +30725,7 @@
         <v>1488</v>
       </c>
       <c r="G798" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H798" t="s">
         <v>4</v>
@@ -30748,7 +30754,7 @@
         <v>1490</v>
       </c>
       <c r="G799" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H799" t="s">
         <v>4</v>
@@ -30777,7 +30783,7 @@
         <v>1492</v>
       </c>
       <c r="G800" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H800" t="s">
         <v>4</v>
@@ -30864,7 +30870,7 @@
         <v>1498</v>
       </c>
       <c r="G803" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H803" t="s">
         <v>4</v>
@@ -30893,7 +30899,7 @@
         <v>1500</v>
       </c>
       <c r="G804" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H804" t="s">
         <v>4</v>
@@ -30922,7 +30928,7 @@
         <v>1502</v>
       </c>
       <c r="G805" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H805" t="s">
         <v>4</v>
@@ -30951,7 +30957,7 @@
         <v>1504</v>
       </c>
       <c r="G806" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H806" t="s">
         <v>4</v>
@@ -31009,7 +31015,7 @@
         <v>1508</v>
       </c>
       <c r="G808" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H808" t="s">
         <v>4</v>
@@ -31038,7 +31044,7 @@
         <v>1510</v>
       </c>
       <c r="G809" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H809" t="s">
         <v>4</v>
@@ -31067,7 +31073,7 @@
         <v>1512</v>
       </c>
       <c r="G810" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H810" t="s">
         <v>4</v>
@@ -31096,7 +31102,7 @@
         <v>1514</v>
       </c>
       <c r="G811" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H811" t="s">
         <v>4</v>
@@ -31125,7 +31131,7 @@
         <v>1516</v>
       </c>
       <c r="G812" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H812" t="s">
         <v>4</v>
@@ -31183,7 +31189,7 @@
         <v>1520</v>
       </c>
       <c r="G814" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H814" t="s">
         <v>4</v>
@@ -31212,7 +31218,7 @@
         <v>1522</v>
       </c>
       <c r="G815" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H815" t="s">
         <v>4</v>
@@ -31241,7 +31247,7 @@
         <v>1524</v>
       </c>
       <c r="G816" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H816" t="s">
         <v>4</v>
@@ -31270,7 +31276,7 @@
         <v>1526</v>
       </c>
       <c r="G817" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H817" t="s">
         <v>4</v>
@@ -31299,7 +31305,7 @@
         <v>1528</v>
       </c>
       <c r="G818" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H818" t="s">
         <v>4</v>
@@ -31328,7 +31334,7 @@
         <v>1530</v>
       </c>
       <c r="G819" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H819" t="s">
         <v>4</v>
@@ -31357,7 +31363,7 @@
         <v>1532</v>
       </c>
       <c r="G820" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H820" t="s">
         <v>4</v>
@@ -31386,7 +31392,7 @@
         <v>1534</v>
       </c>
       <c r="G821" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H821" t="s">
         <v>4</v>
@@ -31444,7 +31450,7 @@
         <v>1538</v>
       </c>
       <c r="G823" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H823" t="s">
         <v>4</v>
@@ -31473,7 +31479,7 @@
         <v>1540</v>
       </c>
       <c r="G824" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H824" t="s">
         <v>4</v>
@@ -31502,7 +31508,7 @@
         <v>1542</v>
       </c>
       <c r="G825" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H825" t="s">
         <v>4</v>
@@ -31589,7 +31595,7 @@
         <v>1548</v>
       </c>
       <c r="G828" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H828" t="s">
         <v>4</v>
@@ -31763,7 +31769,7 @@
         <v>1560</v>
       </c>
       <c r="G834" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H834" t="s">
         <v>4</v>
@@ -31792,7 +31798,7 @@
         <v>1562</v>
       </c>
       <c r="G835" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H835" t="s">
         <v>4</v>
@@ -31821,7 +31827,7 @@
         <v>1564</v>
       </c>
       <c r="G836" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H836" t="s">
         <v>4</v>
@@ -31850,7 +31856,7 @@
         <v>1566</v>
       </c>
       <c r="G837" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H837" t="s">
         <v>4</v>
@@ -31879,7 +31885,7 @@
         <v>1568</v>
       </c>
       <c r="G838" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H838" t="s">
         <v>4</v>
@@ -31937,7 +31943,7 @@
         <v>1572</v>
       </c>
       <c r="G840" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H840" t="s">
         <v>4</v>
@@ -31966,7 +31972,7 @@
         <v>1574</v>
       </c>
       <c r="G841" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H841" t="s">
         <v>4</v>
@@ -31995,7 +32001,7 @@
         <v>1576</v>
       </c>
       <c r="G842" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H842" t="s">
         <v>4</v>
@@ -32024,7 +32030,7 @@
         <v>1578</v>
       </c>
       <c r="G843" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H843" t="s">
         <v>4</v>
@@ -32111,7 +32117,7 @@
         <v>1584</v>
       </c>
       <c r="G846" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H846" t="s">
         <v>4</v>
@@ -32140,7 +32146,7 @@
         <v>1586</v>
       </c>
       <c r="G847" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H847" t="s">
         <v>4</v>
@@ -32198,7 +32204,7 @@
         <v>1590</v>
       </c>
       <c r="G849" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H849" t="s">
         <v>4</v>
@@ -32227,7 +32233,7 @@
         <v>1592</v>
       </c>
       <c r="G850" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H850" t="s">
         <v>4</v>
@@ -32256,7 +32262,7 @@
         <v>1594</v>
       </c>
       <c r="G851" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H851" t="s">
         <v>4</v>
@@ -32285,7 +32291,7 @@
         <v>1596</v>
       </c>
       <c r="G852" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H852" t="s">
         <v>4</v>
@@ -32314,7 +32320,7 @@
         <v>1598</v>
       </c>
       <c r="G853" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H853" t="s">
         <v>4</v>
@@ -32343,7 +32349,7 @@
         <v>1600</v>
       </c>
       <c r="G854" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H854" t="s">
         <v>4</v>
@@ -32430,7 +32436,7 @@
         <v>1606</v>
       </c>
       <c r="G857" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H857" t="s">
         <v>4</v>
@@ -32459,7 +32465,7 @@
         <v>1608</v>
       </c>
       <c r="G858" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H858" t="s">
         <v>4</v>
@@ -32488,7 +32494,7 @@
         <v>1610</v>
       </c>
       <c r="G859" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H859" t="s">
         <v>4</v>
@@ -32517,7 +32523,7 @@
         <v>1612</v>
       </c>
       <c r="G860" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H860" t="s">
         <v>4</v>
@@ -32540,10 +32546,10 @@
         <v>860</v>
       </c>
       <c r="E861" t="s">
-        <v>1335</v>
+        <v>1613</v>
       </c>
       <c r="F861" t="s">
-        <v>1336</v>
+        <v>1614</v>
       </c>
       <c r="G861" t="n">
         <v>1</v>
@@ -32569,13 +32575,13 @@
         <v>861</v>
       </c>
       <c r="E862" t="s">
-        <v>1613</v>
+        <v>1337</v>
       </c>
       <c r="F862" t="s">
-        <v>1614</v>
+        <v>1338</v>
       </c>
       <c r="G862" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H862" t="s">
         <v>4</v>
@@ -32604,7 +32610,7 @@
         <v>1616</v>
       </c>
       <c r="G863" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H863" t="s">
         <v>4</v>
@@ -32662,7 +32668,7 @@
         <v>1620</v>
       </c>
       <c r="G865" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H865" t="s">
         <v>4</v>
@@ -32691,7 +32697,7 @@
         <v>1622</v>
       </c>
       <c r="G866" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H866" t="s">
         <v>4</v>
@@ -32714,13 +32720,13 @@
         <v>866</v>
       </c>
       <c r="E867" t="s">
-        <v>1513</v>
+        <v>1623</v>
       </c>
       <c r="F867" t="s">
-        <v>1514</v>
+        <v>1624</v>
       </c>
       <c r="G867" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H867" t="s">
         <v>4</v>
@@ -32743,13 +32749,13 @@
         <v>867</v>
       </c>
       <c r="E868" t="s">
-        <v>1623</v>
+        <v>1515</v>
       </c>
       <c r="F868" t="s">
-        <v>1624</v>
+        <v>1516</v>
       </c>
       <c r="G868" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H868" t="s">
         <v>4</v>
@@ -32772,13 +32778,13 @@
         <v>868</v>
       </c>
       <c r="E869" t="s">
-        <v>1361</v>
+        <v>1625</v>
       </c>
       <c r="F869" t="s">
-        <v>1362</v>
+        <v>1626</v>
       </c>
       <c r="G869" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H869" t="s">
         <v>4</v>
@@ -32801,10 +32807,10 @@
         <v>869</v>
       </c>
       <c r="E870" t="s">
-        <v>1625</v>
+        <v>1363</v>
       </c>
       <c r="F870" t="s">
-        <v>1626</v>
+        <v>1364</v>
       </c>
       <c r="G870" t="n">
         <v>1</v>
@@ -32836,7 +32842,7 @@
         <v>1628</v>
       </c>
       <c r="G871" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H871" t="s">
         <v>4</v>
@@ -32859,13 +32865,13 @@
         <v>871</v>
       </c>
       <c r="E872" t="s">
-        <v>1541</v>
+        <v>1629</v>
       </c>
       <c r="F872" t="s">
-        <v>1542</v>
+        <v>1630</v>
       </c>
       <c r="G872" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H872" t="s">
         <v>4</v>
@@ -32888,13 +32894,13 @@
         <v>872</v>
       </c>
       <c r="E873" t="s">
-        <v>1537</v>
+        <v>1543</v>
       </c>
       <c r="F873" t="s">
-        <v>1538</v>
+        <v>1544</v>
       </c>
       <c r="G873" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H873" t="s">
         <v>4</v>
@@ -32917,13 +32923,13 @@
         <v>873</v>
       </c>
       <c r="E874" t="s">
-        <v>1629</v>
+        <v>1539</v>
       </c>
       <c r="F874" t="s">
-        <v>1630</v>
+        <v>1540</v>
       </c>
       <c r="G874" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H874" t="s">
         <v>4</v>
@@ -32981,7 +32987,7 @@
         <v>1634</v>
       </c>
       <c r="G876" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H876" t="s">
         <v>4</v>
@@ -33010,7 +33016,7 @@
         <v>1636</v>
       </c>
       <c r="G877" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H877" t="s">
         <v>4</v>
@@ -33068,7 +33074,7 @@
         <v>1640</v>
       </c>
       <c r="G879" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H879" t="s">
         <v>4</v>
@@ -33097,7 +33103,7 @@
         <v>1642</v>
       </c>
       <c r="G880" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H880" t="s">
         <v>4</v>
@@ -33126,7 +33132,7 @@
         <v>1644</v>
       </c>
       <c r="G881" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H881" t="s">
         <v>4</v>
@@ -33184,7 +33190,7 @@
         <v>1648</v>
       </c>
       <c r="G883" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H883" t="s">
         <v>4</v>
@@ -33213,7 +33219,7 @@
         <v>1650</v>
       </c>
       <c r="G884" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H884" t="s">
         <v>4</v>
@@ -33242,7 +33248,7 @@
         <v>1652</v>
       </c>
       <c r="G885" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H885" t="s">
         <v>4</v>
@@ -33271,7 +33277,7 @@
         <v>1654</v>
       </c>
       <c r="G886" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H886" t="s">
         <v>4</v>
@@ -33294,13 +33300,13 @@
         <v>886</v>
       </c>
       <c r="E887" t="s">
-        <v>1557</v>
+        <v>1655</v>
       </c>
       <c r="F887" t="s">
-        <v>1558</v>
+        <v>1656</v>
       </c>
       <c r="G887" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H887" t="s">
         <v>4</v>
@@ -33323,10 +33329,10 @@
         <v>887</v>
       </c>
       <c r="E888" t="s">
-        <v>1555</v>
+        <v>1559</v>
       </c>
       <c r="F888" t="s">
-        <v>1556</v>
+        <v>1560</v>
       </c>
       <c r="G888" t="n">
         <v>1</v>
@@ -33352,13 +33358,13 @@
         <v>888</v>
       </c>
       <c r="E889" t="s">
-        <v>1451</v>
+        <v>1557</v>
       </c>
       <c r="F889" t="s">
-        <v>1452</v>
+        <v>1558</v>
       </c>
       <c r="G889" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H889" t="s">
         <v>4</v>
@@ -33381,13 +33387,13 @@
         <v>889</v>
       </c>
       <c r="E890" t="s">
-        <v>1655</v>
+        <v>1453</v>
       </c>
       <c r="F890" t="s">
-        <v>1656</v>
+        <v>1454</v>
       </c>
       <c r="G890" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H890" t="s">
         <v>4</v>
@@ -33416,7 +33422,7 @@
         <v>1658</v>
       </c>
       <c r="G891" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H891" t="s">
         <v>4</v>
@@ -33445,7 +33451,7 @@
         <v>1660</v>
       </c>
       <c r="G892" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H892" t="s">
         <v>4</v>
@@ -33474,7 +33480,7 @@
         <v>1662</v>
       </c>
       <c r="G893" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H893" t="s">
         <v>4</v>
@@ -33503,7 +33509,7 @@
         <v>1664</v>
       </c>
       <c r="G894" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H894" t="s">
         <v>4</v>
@@ -33671,13 +33677,13 @@
         <v>899</v>
       </c>
       <c r="E900" t="s">
-        <v>669</v>
+        <v>1675</v>
       </c>
       <c r="F900" t="s">
-        <v>670</v>
+        <v>1676</v>
       </c>
       <c r="G900" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H900" t="s">
         <v>4</v>
@@ -33700,13 +33706,13 @@
         <v>900</v>
       </c>
       <c r="E901" t="s">
-        <v>1675</v>
+        <v>669</v>
       </c>
       <c r="F901" t="s">
-        <v>1676</v>
+        <v>670</v>
       </c>
       <c r="G901" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H901" t="s">
         <v>4</v>
@@ -33735,7 +33741,7 @@
         <v>1678</v>
       </c>
       <c r="G902" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H902" t="s">
         <v>4</v>
@@ -33938,7 +33944,7 @@
         <v>1692</v>
       </c>
       <c r="G909" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H909" t="s">
         <v>4</v>
@@ -33967,7 +33973,7 @@
         <v>1694</v>
       </c>
       <c r="G910" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H910" t="s">
         <v>4</v>
@@ -33996,7 +34002,7 @@
         <v>1696</v>
       </c>
       <c r="G911" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H911" t="s">
         <v>4</v>
@@ -34025,7 +34031,7 @@
         <v>1698</v>
       </c>
       <c r="G912" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H912" t="s">
         <v>4</v>
@@ -34141,7 +34147,7 @@
         <v>1706</v>
       </c>
       <c r="G916" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H916" t="s">
         <v>4</v>
@@ -34170,7 +34176,7 @@
         <v>1708</v>
       </c>
       <c r="G917" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H917" t="s">
         <v>4</v>
@@ -34199,7 +34205,7 @@
         <v>1710</v>
       </c>
       <c r="G918" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H918" t="s">
         <v>4</v>
@@ -34228,7 +34234,7 @@
         <v>1712</v>
       </c>
       <c r="G919" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H919" t="s">
         <v>4</v>
@@ -34257,7 +34263,7 @@
         <v>1714</v>
       </c>
       <c r="G920" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H920" t="s">
         <v>4</v>
@@ -34286,7 +34292,7 @@
         <v>1716</v>
       </c>
       <c r="G921" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H921" t="s">
         <v>4</v>
@@ -34373,7 +34379,7 @@
         <v>1722</v>
       </c>
       <c r="G924" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H924" t="s">
         <v>4</v>
@@ -34402,7 +34408,7 @@
         <v>1724</v>
       </c>
       <c r="G925" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H925" t="s">
         <v>4</v>
@@ -34431,7 +34437,7 @@
         <v>1726</v>
       </c>
       <c r="G926" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H926" t="s">
         <v>4</v>
@@ -34460,7 +34466,7 @@
         <v>1728</v>
       </c>
       <c r="G927" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H927" t="s">
         <v>4</v>
@@ -34483,13 +34489,13 @@
         <v>927</v>
       </c>
       <c r="E928" t="s">
-        <v>1303</v>
+        <v>1729</v>
       </c>
       <c r="F928" t="s">
-        <v>1304</v>
+        <v>1730</v>
       </c>
       <c r="G928" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H928" t="s">
         <v>4</v>
@@ -34512,13 +34518,13 @@
         <v>928</v>
       </c>
       <c r="E929" t="s">
-        <v>1729</v>
+        <v>1305</v>
       </c>
       <c r="F929" t="s">
-        <v>1730</v>
+        <v>1306</v>
       </c>
       <c r="G929" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H929" t="s">
         <v>4</v>
@@ -34547,7 +34553,7 @@
         <v>1732</v>
       </c>
       <c r="G930" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H930" t="s">
         <v>4</v>
@@ -34576,7 +34582,7 @@
         <v>1734</v>
       </c>
       <c r="G931" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H931" t="s">
         <v>4</v>
@@ -34779,7 +34785,7 @@
         <v>1748</v>
       </c>
       <c r="G938" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H938" t="s">
         <v>4</v>
@@ -34808,7 +34814,7 @@
         <v>1750</v>
       </c>
       <c r="G939" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H939" t="s">
         <v>4</v>
@@ -34924,7 +34930,7 @@
         <v>1758</v>
       </c>
       <c r="G943" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H943" t="s">
         <v>4</v>
@@ -34953,7 +34959,7 @@
         <v>1760</v>
       </c>
       <c r="G944" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H944" t="s">
         <v>4</v>
@@ -34982,7 +34988,7 @@
         <v>1762</v>
       </c>
       <c r="G945" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H945" t="s">
         <v>4</v>
@@ -35005,13 +35011,13 @@
         <v>945</v>
       </c>
       <c r="E946" t="s">
-        <v>1353</v>
+        <v>1763</v>
       </c>
       <c r="F946" t="s">
-        <v>1354</v>
+        <v>1764</v>
       </c>
       <c r="G946" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H946" t="s">
         <v>4</v>
@@ -35034,10 +35040,10 @@
         <v>946</v>
       </c>
       <c r="E947" t="s">
-        <v>1763</v>
+        <v>1355</v>
       </c>
       <c r="F947" t="s">
-        <v>1764</v>
+        <v>1356</v>
       </c>
       <c r="G947" t="n">
         <v>2</v>
@@ -35069,7 +35075,7 @@
         <v>1766</v>
       </c>
       <c r="G948" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H948" t="s">
         <v>4</v>
@@ -35243,7 +35249,7 @@
         <v>1778</v>
       </c>
       <c r="G954" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H954" t="s">
         <v>4</v>
@@ -35272,7 +35278,7 @@
         <v>1780</v>
       </c>
       <c r="G955" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H955" t="s">
         <v>4</v>
@@ -35359,7 +35365,7 @@
         <v>1786</v>
       </c>
       <c r="G958" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H958" t="s">
         <v>4</v>
@@ -35417,7 +35423,7 @@
         <v>1790</v>
       </c>
       <c r="G960" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H960" t="s">
         <v>4</v>
@@ -35440,13 +35446,13 @@
         <v>960</v>
       </c>
       <c r="E961" t="s">
-        <v>1383</v>
+        <v>1791</v>
       </c>
       <c r="F961" t="s">
-        <v>1384</v>
+        <v>1792</v>
       </c>
       <c r="G961" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H961" t="s">
         <v>4</v>
@@ -35469,13 +35475,13 @@
         <v>961</v>
       </c>
       <c r="E962" t="s">
-        <v>1529</v>
+        <v>1385</v>
       </c>
       <c r="F962" t="s">
-        <v>1530</v>
+        <v>1386</v>
       </c>
       <c r="G962" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H962" t="s">
         <v>4</v>
@@ -35498,10 +35504,10 @@
         <v>962</v>
       </c>
       <c r="E963" t="s">
-        <v>1791</v>
+        <v>1531</v>
       </c>
       <c r="F963" t="s">
-        <v>1792</v>
+        <v>1532</v>
       </c>
       <c r="G963" t="n">
         <v>1</v>
@@ -35562,7 +35568,7 @@
         <v>1796</v>
       </c>
       <c r="G965" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H965" t="s">
         <v>4</v>
@@ -35591,7 +35597,7 @@
         <v>1798</v>
       </c>
       <c r="G966" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H966" t="s">
         <v>4</v>
@@ -35620,7 +35626,7 @@
         <v>1800</v>
       </c>
       <c r="G967" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H967" t="s">
         <v>4</v>
@@ -35678,7 +35684,7 @@
         <v>1804</v>
       </c>
       <c r="G969" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H969" t="s">
         <v>4</v>
@@ -35707,7 +35713,7 @@
         <v>1806</v>
       </c>
       <c r="G970" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H970" t="s">
         <v>4</v>
@@ -35765,7 +35771,7 @@
         <v>1810</v>
       </c>
       <c r="G972" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H972" t="s">
         <v>4</v>
@@ -35823,7 +35829,7 @@
         <v>1814</v>
       </c>
       <c r="G974" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H974" t="s">
         <v>4</v>
@@ -35852,7 +35858,7 @@
         <v>1816</v>
       </c>
       <c r="G975" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H975" t="s">
         <v>4</v>
@@ -35939,7 +35945,7 @@
         <v>1822</v>
       </c>
       <c r="G978" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H978" t="s">
         <v>4</v>
@@ -35968,7 +35974,7 @@
         <v>1824</v>
       </c>
       <c r="G979" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H979" t="s">
         <v>4</v>
@@ -36055,7 +36061,7 @@
         <v>1830</v>
       </c>
       <c r="G982" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H982" t="s">
         <v>4</v>
@@ -36084,7 +36090,7 @@
         <v>1832</v>
       </c>
       <c r="G983" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H983" t="s">
         <v>4</v>
@@ -36113,7 +36119,7 @@
         <v>1834</v>
       </c>
       <c r="G984" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H984" t="s">
         <v>4</v>
@@ -36223,13 +36229,13 @@
         <v>987</v>
       </c>
       <c r="E988" t="s">
-        <v>433</v>
+        <v>1841</v>
       </c>
       <c r="F988" t="s">
-        <v>434</v>
+        <v>1842</v>
       </c>
       <c r="G988" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H988" t="s">
         <v>4</v>
@@ -36252,10 +36258,10 @@
         <v>988</v>
       </c>
       <c r="E989" t="s">
-        <v>1841</v>
+        <v>433</v>
       </c>
       <c r="F989" t="s">
-        <v>1842</v>
+        <v>434</v>
       </c>
       <c r="G989" t="n">
         <v>1</v>
@@ -36316,7 +36322,7 @@
         <v>1846</v>
       </c>
       <c r="G991" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H991" t="s">
         <v>4</v>
@@ -36374,7 +36380,7 @@
         <v>1850</v>
       </c>
       <c r="G993" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H993" t="s">
         <v>4</v>
@@ -36403,7 +36409,7 @@
         <v>1852</v>
       </c>
       <c r="G994" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H994" t="s">
         <v>4</v>
@@ -36461,7 +36467,7 @@
         <v>1856</v>
       </c>
       <c r="G996" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H996" t="s">
         <v>4</v>
@@ -36490,7 +36496,7 @@
         <v>1858</v>
       </c>
       <c r="G997" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H997" t="s">
         <v>4</v>
@@ -36519,7 +36525,7 @@
         <v>1860</v>
       </c>
       <c r="G998" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H998" t="s">
         <v>4</v>
@@ -36542,13 +36548,13 @@
         <v>998</v>
       </c>
       <c r="E999" t="s">
-        <v>1301</v>
+        <v>1861</v>
       </c>
       <c r="F999" t="s">
-        <v>1302</v>
+        <v>1862</v>
       </c>
       <c r="G999" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H999" t="s">
         <v>4</v>
@@ -36571,10 +36577,10 @@
         <v>999</v>
       </c>
       <c r="E1000" t="s">
-        <v>1861</v>
+        <v>1303</v>
       </c>
       <c r="F1000" t="s">
-        <v>1862</v>
+        <v>1304</v>
       </c>
       <c r="G1000" t="n">
         <v>1</v>
@@ -36606,7 +36612,7 @@
         <v>1864</v>
       </c>
       <c r="G1001" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1001" t="s">
         <v>4</v>
@@ -36664,7 +36670,7 @@
         <v>1868</v>
       </c>
       <c r="G1003" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1003" t="s">
         <v>4</v>
@@ -36687,10 +36693,10 @@
         <v>1003</v>
       </c>
       <c r="E1004" t="s">
-        <v>1301</v>
+        <v>1869</v>
       </c>
       <c r="F1004" t="s">
-        <v>1302</v>
+        <v>1870</v>
       </c>
       <c r="G1004" t="n">
         <v>1</v>
@@ -36716,10 +36722,10 @@
         <v>1004</v>
       </c>
       <c r="E1005" t="s">
-        <v>1869</v>
+        <v>1303</v>
       </c>
       <c r="F1005" t="s">
-        <v>1870</v>
+        <v>1304</v>
       </c>
       <c r="G1005" t="n">
         <v>1</v>
@@ -36780,7 +36786,7 @@
         <v>1874</v>
       </c>
       <c r="G1007" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H1007" t="s">
         <v>4</v>
@@ -36809,7 +36815,7 @@
         <v>1876</v>
       </c>
       <c r="G1008" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H1008" t="s">
         <v>4</v>
@@ -36838,7 +36844,7 @@
         <v>1878</v>
       </c>
       <c r="G1009" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H1009" t="s">
         <v>4</v>
@@ -36867,7 +36873,7 @@
         <v>1880</v>
       </c>
       <c r="G1010" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H1010" t="s">
         <v>4</v>
@@ -37064,10 +37070,10 @@
         <v>1016</v>
       </c>
       <c r="E1017" t="s">
-        <v>1845</v>
+        <v>1893</v>
       </c>
       <c r="F1017" t="s">
-        <v>1846</v>
+        <v>1894</v>
       </c>
       <c r="G1017" t="n">
         <v>1</v>
@@ -37093,10 +37099,10 @@
         <v>1017</v>
       </c>
       <c r="E1018" t="s">
-        <v>1359</v>
+        <v>1847</v>
       </c>
       <c r="F1018" t="s">
-        <v>1360</v>
+        <v>1848</v>
       </c>
       <c r="G1018" t="n">
         <v>1</v>
@@ -37122,10 +37128,10 @@
         <v>1018</v>
       </c>
       <c r="E1019" t="s">
-        <v>1893</v>
+        <v>1361</v>
       </c>
       <c r="F1019" t="s">
-        <v>1894</v>
+        <v>1362</v>
       </c>
       <c r="G1019" t="n">
         <v>1</v>
@@ -37215,7 +37221,7 @@
         <v>1900</v>
       </c>
       <c r="G1022" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1022" t="s">
         <v>4</v>
@@ -37244,7 +37250,7 @@
         <v>1902</v>
       </c>
       <c r="G1023" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H1023" t="s">
         <v>4</v>
@@ -37302,7 +37308,7 @@
         <v>1906</v>
       </c>
       <c r="G1025" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1025" t="s">
         <v>4</v>
@@ -37331,7 +37337,7 @@
         <v>1908</v>
       </c>
       <c r="G1026" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H1026" t="s">
         <v>4</v>
@@ -37360,7 +37366,7 @@
         <v>1910</v>
       </c>
       <c r="G1027" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H1027" t="s">
         <v>4</v>
@@ -37505,7 +37511,7 @@
         <v>1920</v>
       </c>
       <c r="G1032" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1032" t="s">
         <v>4</v>
@@ -37534,7 +37540,7 @@
         <v>1922</v>
       </c>
       <c r="G1033" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H1033" t="s">
         <v>4</v>
@@ -37557,13 +37563,13 @@
         <v>1033</v>
       </c>
       <c r="E1034" t="s">
-        <v>1285</v>
+        <v>1923</v>
       </c>
       <c r="F1034" t="s">
-        <v>1286</v>
+        <v>1924</v>
       </c>
       <c r="G1034" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="H1034" t="s">
         <v>4</v>
@@ -37586,13 +37592,13 @@
         <v>1034</v>
       </c>
       <c r="E1035" t="s">
-        <v>1923</v>
+        <v>1287</v>
       </c>
       <c r="F1035" t="s">
-        <v>1924</v>
+        <v>1288</v>
       </c>
       <c r="G1035" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="H1035" t="s">
         <v>4</v>
@@ -37621,7 +37627,7 @@
         <v>1926</v>
       </c>
       <c r="G1036" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1036" t="s">
         <v>4</v>
@@ -37650,7 +37656,7 @@
         <v>1928</v>
       </c>
       <c r="G1037" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H1037" t="s">
         <v>4</v>
@@ -37679,7 +37685,7 @@
         <v>1930</v>
       </c>
       <c r="G1038" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H1038" t="s">
         <v>4</v>
@@ -37708,7 +37714,7 @@
         <v>1932</v>
       </c>
       <c r="G1039" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="H1039" t="s">
         <v>4</v>
@@ -37737,7 +37743,7 @@
         <v>1934</v>
       </c>
       <c r="G1040" t="n">
-        <v>183</v>
+        <v>2</v>
       </c>
       <c r="H1040" t="s">
         <v>4</v>
@@ -37766,7 +37772,7 @@
         <v>1936</v>
       </c>
       <c r="G1041" t="n">
-        <v>1</v>
+        <v>185</v>
       </c>
       <c r="H1041" t="s">
         <v>4</v>
@@ -37824,7 +37830,7 @@
         <v>1940</v>
       </c>
       <c r="G1043" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1043" t="s">
         <v>4</v>
@@ -37847,10 +37853,10 @@
         <v>1043</v>
       </c>
       <c r="E1044" t="s">
-        <v>1323</v>
+        <v>1941</v>
       </c>
       <c r="F1044" t="s">
-        <v>1324</v>
+        <v>1942</v>
       </c>
       <c r="G1044" t="n">
         <v>2</v>
@@ -37876,13 +37882,13 @@
         <v>1044</v>
       </c>
       <c r="E1045" t="s">
-        <v>1547</v>
+        <v>1325</v>
       </c>
       <c r="F1045" t="s">
-        <v>1548</v>
+        <v>1326</v>
       </c>
       <c r="G1045" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1045" t="s">
         <v>4</v>
@@ -37905,10 +37911,10 @@
         <v>1045</v>
       </c>
       <c r="E1046" t="s">
-        <v>1941</v>
+        <v>1549</v>
       </c>
       <c r="F1046" t="s">
-        <v>1942</v>
+        <v>1550</v>
       </c>
       <c r="G1046" t="n">
         <v>1</v>
@@ -37940,7 +37946,7 @@
         <v>1944</v>
       </c>
       <c r="G1047" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1047" t="s">
         <v>4</v>
@@ -37969,7 +37975,7 @@
         <v>1946</v>
       </c>
       <c r="G1048" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1048" t="s">
         <v>4</v>
@@ -37998,7 +38004,7 @@
         <v>1948</v>
       </c>
       <c r="G1049" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1049" t="s">
         <v>4</v>
@@ -38021,13 +38027,13 @@
         <v>1049</v>
       </c>
       <c r="E1050" t="s">
-        <v>1399</v>
+        <v>1949</v>
       </c>
       <c r="F1050" t="s">
-        <v>1400</v>
+        <v>1950</v>
       </c>
       <c r="G1050" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1050" t="s">
         <v>4</v>
@@ -38050,13 +38056,13 @@
         <v>1050</v>
       </c>
       <c r="E1051" t="s">
-        <v>1949</v>
+        <v>1401</v>
       </c>
       <c r="F1051" t="s">
-        <v>1950</v>
+        <v>1402</v>
       </c>
       <c r="G1051" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1051" t="s">
         <v>4</v>
@@ -38079,13 +38085,13 @@
         <v>1051</v>
       </c>
       <c r="E1052" t="s">
-        <v>1735</v>
+        <v>1951</v>
       </c>
       <c r="F1052" t="s">
-        <v>1736</v>
+        <v>1952</v>
       </c>
       <c r="G1052" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H1052" t="s">
         <v>4</v>
@@ -38108,13 +38114,13 @@
         <v>1052</v>
       </c>
       <c r="E1053" t="s">
-        <v>1951</v>
+        <v>1737</v>
       </c>
       <c r="F1053" t="s">
-        <v>1952</v>
+        <v>1738</v>
       </c>
       <c r="G1053" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H1053" t="s">
         <v>4</v>
@@ -38172,7 +38178,7 @@
         <v>1956</v>
       </c>
       <c r="G1055" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H1055" t="s">
         <v>4</v>
@@ -38201,7 +38207,7 @@
         <v>1958</v>
       </c>
       <c r="G1056" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H1056" t="s">
         <v>4</v>
@@ -38259,7 +38265,7 @@
         <v>1962</v>
       </c>
       <c r="G1058" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H1058" t="s">
         <v>4</v>
@@ -38282,13 +38288,13 @@
         <v>1058</v>
       </c>
       <c r="E1059" t="s">
-        <v>1615</v>
+        <v>1963</v>
       </c>
       <c r="F1059" t="s">
-        <v>1616</v>
+        <v>1964</v>
       </c>
       <c r="G1059" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H1059" t="s">
         <v>4</v>
@@ -38311,13 +38317,13 @@
         <v>1059</v>
       </c>
       <c r="E1060" t="s">
-        <v>1963</v>
+        <v>1617</v>
       </c>
       <c r="F1060" t="s">
-        <v>1964</v>
+        <v>1618</v>
       </c>
       <c r="G1060" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H1060" t="s">
         <v>4</v>
@@ -38346,7 +38352,7 @@
         <v>1966</v>
       </c>
       <c r="G1061" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1061" t="s">
         <v>4</v>
@@ -38369,13 +38375,13 @@
         <v>1061</v>
       </c>
       <c r="E1062" t="s">
-        <v>1253</v>
+        <v>1967</v>
       </c>
       <c r="F1062" t="s">
-        <v>1254</v>
+        <v>1968</v>
       </c>
       <c r="G1062" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1062" t="s">
         <v>4</v>
@@ -38398,10 +38404,10 @@
         <v>1062</v>
       </c>
       <c r="E1063" t="s">
-        <v>1967</v>
+        <v>1255</v>
       </c>
       <c r="F1063" t="s">
-        <v>1968</v>
+        <v>1256</v>
       </c>
       <c r="G1063" t="n">
         <v>2</v>
@@ -38427,13 +38433,13 @@
         <v>1063</v>
       </c>
       <c r="E1064" t="s">
-        <v>1951</v>
+        <v>1969</v>
       </c>
       <c r="F1064" t="s">
-        <v>1952</v>
+        <v>1970</v>
       </c>
       <c r="G1064" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1064" t="s">
         <v>4</v>
@@ -38456,10 +38462,10 @@
         <v>1064</v>
       </c>
       <c r="E1065" t="s">
-        <v>1937</v>
+        <v>1953</v>
       </c>
       <c r="F1065" t="s">
-        <v>1938</v>
+        <v>1954</v>
       </c>
       <c r="G1065" t="n">
         <v>1</v>
@@ -38485,13 +38491,13 @@
         <v>1065</v>
       </c>
       <c r="E1066" t="s">
-        <v>1547</v>
+        <v>1939</v>
       </c>
       <c r="F1066" t="s">
-        <v>1548</v>
+        <v>1940</v>
       </c>
       <c r="G1066" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1066" t="s">
         <v>4</v>
@@ -38514,13 +38520,13 @@
         <v>1066</v>
       </c>
       <c r="E1067" t="s">
-        <v>1969</v>
+        <v>1549</v>
       </c>
       <c r="F1067" t="s">
-        <v>1970</v>
+        <v>1550</v>
       </c>
       <c r="G1067" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1067" t="s">
         <v>4</v>
@@ -38543,13 +38549,13 @@
         <v>1067</v>
       </c>
       <c r="E1068" t="s">
-        <v>1943</v>
+        <v>1971</v>
       </c>
       <c r="F1068" t="s">
-        <v>1944</v>
+        <v>1972</v>
       </c>
       <c r="G1068" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1068" t="s">
         <v>4</v>
@@ -38572,13 +38578,13 @@
         <v>1068</v>
       </c>
       <c r="E1069" t="s">
-        <v>1971</v>
+        <v>1945</v>
       </c>
       <c r="F1069" t="s">
-        <v>1972</v>
+        <v>1946</v>
       </c>
       <c r="G1069" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1069" t="s">
         <v>4</v>
@@ -38694,7 +38700,7 @@
         <v>1980</v>
       </c>
       <c r="G1073" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H1073" t="s">
         <v>4</v>
@@ -38723,7 +38729,7 @@
         <v>1982</v>
       </c>
       <c r="G1074" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H1074" t="s">
         <v>4</v>
@@ -38781,7 +38787,7 @@
         <v>1986</v>
       </c>
       <c r="G1076" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1076" t="s">
         <v>4</v>
@@ -38804,13 +38810,13 @@
         <v>1076</v>
       </c>
       <c r="E1077" t="s">
-        <v>1985</v>
+        <v>1987</v>
       </c>
       <c r="F1077" t="s">
-        <v>1986</v>
+        <v>1988</v>
       </c>
       <c r="G1077" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1077" t="s">
         <v>4</v>
@@ -38839,7 +38845,7 @@
         <v>1988</v>
       </c>
       <c r="G1078" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H1078" t="s">
         <v>4</v>
@@ -38868,7 +38874,7 @@
         <v>1990</v>
       </c>
       <c r="G1079" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H1079" t="s">
         <v>4</v>
@@ -38897,7 +38903,7 @@
         <v>1992</v>
       </c>
       <c r="G1080" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H1080" t="s">
         <v>4</v>
@@ -39042,7 +39048,7 @@
         <v>2002</v>
       </c>
       <c r="G1085" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1085" t="s">
         <v>4</v>
@@ -39071,7 +39077,7 @@
         <v>2004</v>
       </c>
       <c r="G1086" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H1086" t="s">
         <v>4</v>
@@ -39100,7 +39106,7 @@
         <v>2006</v>
       </c>
       <c r="G1087" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H1087" t="s">
         <v>4</v>
@@ -39129,7 +39135,7 @@
         <v>2008</v>
       </c>
       <c r="G1088" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H1088" t="s">
         <v>4</v>
@@ -39216,7 +39222,7 @@
         <v>2014</v>
       </c>
       <c r="G1091" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1091" t="s">
         <v>4</v>
@@ -39245,7 +39251,7 @@
         <v>2016</v>
       </c>
       <c r="G1092" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H1092" t="s">
         <v>4</v>
@@ -39274,7 +39280,7 @@
         <v>2018</v>
       </c>
       <c r="G1093" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1093" t="s">
         <v>4</v>
@@ -39384,10 +39390,10 @@
         <v>1096</v>
       </c>
       <c r="E1097" t="s">
-        <v>1233</v>
+        <v>2025</v>
       </c>
       <c r="F1097" t="s">
-        <v>1234</v>
+        <v>2026</v>
       </c>
       <c r="G1097" t="n">
         <v>1</v>
@@ -39413,13 +39419,13 @@
         <v>1097</v>
       </c>
       <c r="E1098" t="s">
-        <v>2025</v>
+        <v>1235</v>
       </c>
       <c r="F1098" t="s">
-        <v>2026</v>
+        <v>1236</v>
       </c>
       <c r="G1098" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1098" t="s">
         <v>4</v>
@@ -39448,7 +39454,7 @@
         <v>2028</v>
       </c>
       <c r="G1099" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1099" t="s">
         <v>4</v>
@@ -39564,7 +39570,7 @@
         <v>2036</v>
       </c>
       <c r="G1103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1103" t="s">
         <v>4</v>
@@ -39622,7 +39628,7 @@
         <v>2040</v>
       </c>
       <c r="G1105" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1105" t="s">
         <v>4</v>
@@ -39651,7 +39657,7 @@
         <v>2042</v>
       </c>
       <c r="G1106" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1106" t="s">
         <v>4</v>
@@ -39674,13 +39680,13 @@
         <v>1106</v>
       </c>
       <c r="E1107" t="s">
-        <v>103</v>
+        <v>2043</v>
       </c>
       <c r="F1107" t="s">
-        <v>104</v>
+        <v>2044</v>
       </c>
       <c r="G1107" t="n">
-        <v>99</v>
+        <v>3</v>
       </c>
       <c r="H1107" t="s">
         <v>4</v>
@@ -39703,13 +39709,13 @@
         <v>1107</v>
       </c>
       <c r="E1108" t="s">
-        <v>2043</v>
+        <v>103</v>
       </c>
       <c r="F1108" t="s">
-        <v>2044</v>
+        <v>104</v>
       </c>
       <c r="G1108" t="n">
-        <v>367</v>
+        <v>99</v>
       </c>
       <c r="H1108" t="s">
         <v>4</v>
@@ -39732,13 +39738,13 @@
         <v>1108</v>
       </c>
       <c r="E1109" t="s">
-        <v>717</v>
+        <v>2045</v>
       </c>
       <c r="F1109" t="s">
-        <v>718</v>
+        <v>2046</v>
       </c>
       <c r="G1109" t="n">
-        <v>11</v>
+        <v>367</v>
       </c>
       <c r="H1109" t="s">
         <v>4</v>
@@ -39761,13 +39767,13 @@
         <v>1109</v>
       </c>
       <c r="E1110" t="s">
-        <v>33</v>
+        <v>717</v>
       </c>
       <c r="F1110" t="s">
-        <v>34</v>
+        <v>718</v>
       </c>
       <c r="G1110" t="n">
-        <v>168</v>
+        <v>11</v>
       </c>
       <c r="H1110" t="s">
         <v>4</v>
@@ -39790,13 +39796,13 @@
         <v>1110</v>
       </c>
       <c r="E1111" t="s">
-        <v>295</v>
+        <v>33</v>
       </c>
       <c r="F1111" t="s">
-        <v>296</v>
+        <v>34</v>
       </c>
       <c r="G1111" t="n">
-        <v>4</v>
+        <v>170</v>
       </c>
       <c r="H1111" t="s">
         <v>4</v>
@@ -39819,13 +39825,13 @@
         <v>1111</v>
       </c>
       <c r="E1112" t="s">
-        <v>2045</v>
+        <v>295</v>
       </c>
       <c r="F1112" t="s">
-        <v>2046</v>
+        <v>296</v>
       </c>
       <c r="G1112" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H1112" t="s">
         <v>4</v>
@@ -39854,7 +39860,7 @@
         <v>2048</v>
       </c>
       <c r="G1113" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H1113" t="s">
         <v>4</v>
@@ -39883,7 +39889,7 @@
         <v>2050</v>
       </c>
       <c r="G1114" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H1114" t="s">
         <v>4</v>
@@ -39912,7 +39918,7 @@
         <v>2052</v>
       </c>
       <c r="G1115" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H1115" t="s">
         <v>4</v>
@@ -40057,7 +40063,7 @@
         <v>2062</v>
       </c>
       <c r="G1120" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1120" t="s">
         <v>4</v>
@@ -40086,7 +40092,7 @@
         <v>2064</v>
       </c>
       <c r="G1121" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H1121" t="s">
         <v>4</v>
@@ -40115,7 +40121,7 @@
         <v>2066</v>
       </c>
       <c r="G1122" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1122" t="s">
         <v>4</v>
@@ -40173,7 +40179,7 @@
         <v>2070</v>
       </c>
       <c r="G1124" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1124" t="s">
         <v>4</v>
@@ -40202,7 +40208,7 @@
         <v>2072</v>
       </c>
       <c r="G1125" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1125" t="s">
         <v>4</v>
@@ -40231,7 +40237,7 @@
         <v>2074</v>
       </c>
       <c r="G1126" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1126" t="s">
         <v>4</v>
@@ -40260,7 +40266,7 @@
         <v>2076</v>
       </c>
       <c r="G1127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1127" t="s">
         <v>4</v>
@@ -40695,7 +40701,7 @@
         <v>2106</v>
       </c>
       <c r="G1142" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1142" t="s">
         <v>4</v>
@@ -40724,7 +40730,7 @@
         <v>2108</v>
       </c>
       <c r="G1143" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1143" t="s">
         <v>4</v>
@@ -40950,10 +40956,10 @@
         <v>1150</v>
       </c>
       <c r="E1151" t="s">
-        <v>295</v>
+        <v>2123</v>
       </c>
       <c r="F1151" t="s">
-        <v>296</v>
+        <v>2124</v>
       </c>
       <c r="G1151" t="n">
         <v>1</v>
@@ -40979,10 +40985,10 @@
         <v>1151</v>
       </c>
       <c r="E1152" t="s">
-        <v>2123</v>
+        <v>295</v>
       </c>
       <c r="F1152" t="s">
-        <v>2124</v>
+        <v>296</v>
       </c>
       <c r="G1152" t="n">
         <v>1</v>
@@ -41594,7 +41600,7 @@
         <v>2166</v>
       </c>
       <c r="G1173" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1173" t="s">
         <v>4</v>
@@ -41623,7 +41629,7 @@
         <v>2168</v>
       </c>
       <c r="G1174" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1174" t="s">
         <v>4</v>
@@ -41710,7 +41716,7 @@
         <v>2174</v>
       </c>
       <c r="G1177" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1177" t="s">
         <v>4</v>
@@ -41797,7 +41803,7 @@
         <v>2180</v>
       </c>
       <c r="G1180" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1180" t="s">
         <v>4</v>
@@ -42023,13 +42029,13 @@
         <v>1187</v>
       </c>
       <c r="E1188" t="s">
-        <v>99</v>
+        <v>2195</v>
       </c>
       <c r="F1188" t="s">
-        <v>100</v>
+        <v>2196</v>
       </c>
       <c r="G1188" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H1188" t="s">
         <v>4</v>
@@ -42052,13 +42058,13 @@
         <v>1188</v>
       </c>
       <c r="E1189" t="s">
-        <v>2195</v>
+        <v>99</v>
       </c>
       <c r="F1189" t="s">
-        <v>2196</v>
+        <v>100</v>
       </c>
       <c r="G1189" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H1189" t="s">
         <v>4</v>
@@ -42087,7 +42093,7 @@
         <v>2198</v>
       </c>
       <c r="G1190" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H1190" t="s">
         <v>4</v>
@@ -42139,10 +42145,10 @@
         <v>1191</v>
       </c>
       <c r="E1192" t="s">
-        <v>173</v>
+        <v>2201</v>
       </c>
       <c r="F1192" t="s">
-        <v>174</v>
+        <v>2202</v>
       </c>
       <c r="G1192" t="n">
         <v>1</v>
@@ -42168,10 +42174,10 @@
         <v>1192</v>
       </c>
       <c r="E1193" t="s">
-        <v>2201</v>
+        <v>173</v>
       </c>
       <c r="F1193" t="s">
-        <v>2202</v>
+        <v>174</v>
       </c>
       <c r="G1193" t="n">
         <v>1</v>
@@ -42261,7 +42267,7 @@
         <v>2208</v>
       </c>
       <c r="G1196" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H1196" t="s">
         <v>4</v>
@@ -42290,7 +42296,7 @@
         <v>2210</v>
       </c>
       <c r="G1197" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H1197" t="s">
         <v>4</v>
@@ -42348,7 +42354,7 @@
         <v>2214</v>
       </c>
       <c r="G1199" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H1199" t="s">
         <v>4</v>
@@ -42377,7 +42383,7 @@
         <v>2216</v>
       </c>
       <c r="G1200" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H1200" t="s">
         <v>4</v>
@@ -42522,7 +42528,7 @@
         <v>2226</v>
       </c>
       <c r="G1205" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H1205" t="s">
         <v>4</v>
@@ -42551,7 +42557,7 @@
         <v>2228</v>
       </c>
       <c r="G1206" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H1206" t="s">
         <v>4</v>
@@ -42609,7 +42615,7 @@
         <v>2232</v>
       </c>
       <c r="G1208" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1208" t="s">
         <v>4</v>
@@ -42638,7 +42644,7 @@
         <v>2234</v>
       </c>
       <c r="G1209" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1209" t="s">
         <v>4</v>
@@ -42986,7 +42992,7 @@
         <v>2258</v>
       </c>
       <c r="G1221" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1221" t="s">
         <v>4</v>
@@ -43009,13 +43015,13 @@
         <v>1221</v>
       </c>
       <c r="E1222" t="s">
-        <v>115</v>
+        <v>2259</v>
       </c>
       <c r="F1222" t="s">
-        <v>116</v>
+        <v>2260</v>
       </c>
       <c r="G1222" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="H1222" t="s">
         <v>4</v>
@@ -43038,13 +43044,13 @@
         <v>1222</v>
       </c>
       <c r="E1223" t="s">
-        <v>2259</v>
+        <v>115</v>
       </c>
       <c r="F1223" t="s">
-        <v>2260</v>
+        <v>116</v>
       </c>
       <c r="G1223" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="H1223" t="s">
         <v>4</v>
@@ -43073,7 +43079,7 @@
         <v>2262</v>
       </c>
       <c r="G1224" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H1224" t="s">
         <v>4</v>
@@ -43131,7 +43137,7 @@
         <v>2266</v>
       </c>
       <c r="G1226" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H1226" t="s">
         <v>4</v>
@@ -43160,7 +43166,7 @@
         <v>2268</v>
       </c>
       <c r="G1227" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H1227" t="s">
         <v>4</v>
@@ -43183,10 +43189,10 @@
         <v>1227</v>
       </c>
       <c r="E1228" t="s">
-        <v>233</v>
+        <v>2269</v>
       </c>
       <c r="F1228" t="s">
-        <v>234</v>
+        <v>2270</v>
       </c>
       <c r="G1228" t="n">
         <v>1</v>
@@ -43212,10 +43218,10 @@
         <v>1228</v>
       </c>
       <c r="E1229" t="s">
-        <v>2269</v>
+        <v>233</v>
       </c>
       <c r="F1229" t="s">
-        <v>2270</v>
+        <v>234</v>
       </c>
       <c r="G1229" t="n">
         <v>1</v>
@@ -43276,7 +43282,7 @@
         <v>2274</v>
       </c>
       <c r="G1231" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1231" t="s">
         <v>4</v>
@@ -43305,7 +43311,7 @@
         <v>2276</v>
       </c>
       <c r="G1232" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1232" t="s">
         <v>4</v>
@@ -43334,7 +43340,7 @@
         <v>2278</v>
       </c>
       <c r="G1233" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1233" t="s">
         <v>4</v>
@@ -43357,13 +43363,13 @@
         <v>1233</v>
       </c>
       <c r="E1234" t="s">
-        <v>51</v>
+        <v>2279</v>
       </c>
       <c r="F1234" t="s">
-        <v>52</v>
+        <v>2280</v>
       </c>
       <c r="G1234" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="H1234" t="s">
         <v>4</v>
@@ -43386,13 +43392,13 @@
         <v>1234</v>
       </c>
       <c r="E1235" t="s">
-        <v>2279</v>
+        <v>51</v>
       </c>
       <c r="F1235" t="s">
-        <v>2280</v>
+        <v>52</v>
       </c>
       <c r="G1235" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="H1235" t="s">
         <v>4</v>
@@ -43502,13 +43508,13 @@
         <v>1238</v>
       </c>
       <c r="E1239" t="s">
-        <v>197</v>
+        <v>2287</v>
       </c>
       <c r="F1239" t="s">
-        <v>198</v>
+        <v>2288</v>
       </c>
       <c r="G1239" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1239" t="s">
         <v>4</v>
@@ -43531,13 +43537,13 @@
         <v>1239</v>
       </c>
       <c r="E1240" t="s">
-        <v>2287</v>
+        <v>197</v>
       </c>
       <c r="F1240" t="s">
-        <v>2288</v>
+        <v>198</v>
       </c>
       <c r="G1240" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H1240" t="s">
         <v>4</v>
@@ -43566,7 +43572,7 @@
         <v>2290</v>
       </c>
       <c r="G1241" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H1241" t="s">
         <v>4</v>
@@ -43589,13 +43595,13 @@
         <v>1241</v>
       </c>
       <c r="E1242" t="s">
-        <v>201</v>
+        <v>2291</v>
       </c>
       <c r="F1242" t="s">
-        <v>202</v>
+        <v>2292</v>
       </c>
       <c r="G1242" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="H1242" t="s">
         <v>4</v>
@@ -43618,13 +43624,13 @@
         <v>1242</v>
       </c>
       <c r="E1243" t="s">
-        <v>2291</v>
+        <v>201</v>
       </c>
       <c r="F1243" t="s">
-        <v>2292</v>
+        <v>202</v>
       </c>
       <c r="G1243" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="H1243" t="s">
         <v>4</v>
@@ -43740,7 +43746,7 @@
         <v>2300</v>
       </c>
       <c r="G1247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1247" t="s">
         <v>4</v>
@@ -43769,7 +43775,7 @@
         <v>2302</v>
       </c>
       <c r="G1248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1248" t="s">
         <v>4</v>
@@ -43943,7 +43949,7 @@
         <v>2314</v>
       </c>
       <c r="G1254" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1254" t="s">
         <v>4</v>
@@ -43972,7 +43978,7 @@
         <v>2316</v>
       </c>
       <c r="G1255" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H1255" t="s">
         <v>4</v>
@@ -44001,7 +44007,7 @@
         <v>2318</v>
       </c>
       <c r="G1256" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H1256" t="s">
         <v>4</v>
@@ -44030,7 +44036,7 @@
         <v>2320</v>
       </c>
       <c r="G1257" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H1257" t="s">
         <v>4</v>
@@ -44059,7 +44065,7 @@
         <v>2322</v>
       </c>
       <c r="G1258" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H1258" t="s">
         <v>4</v>
@@ -44117,7 +44123,7 @@
         <v>2326</v>
       </c>
       <c r="G1260" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H1260" t="s">
         <v>4</v>
@@ -44146,7 +44152,7 @@
         <v>2328</v>
       </c>
       <c r="G1261" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H1261" t="s">
         <v>4</v>
@@ -44175,7 +44181,7 @@
         <v>2330</v>
       </c>
       <c r="G1262" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H1262" t="s">
         <v>4</v>
@@ -44575,10 +44581,10 @@
         <v>1275</v>
       </c>
       <c r="E1276" t="s">
-        <v>1129</v>
+        <v>2357</v>
       </c>
       <c r="F1276" t="s">
-        <v>1130</v>
+        <v>2358</v>
       </c>
       <c r="G1276" t="n">
         <v>1</v>
@@ -44604,10 +44610,10 @@
         <v>1276</v>
       </c>
       <c r="E1277" t="s">
-        <v>2357</v>
+        <v>1129</v>
       </c>
       <c r="F1277" t="s">
-        <v>2358</v>
+        <v>1130</v>
       </c>
       <c r="G1277" t="n">
         <v>1</v>
@@ -44633,13 +44639,13 @@
         <v>1277</v>
       </c>
       <c r="E1278" t="s">
-        <v>217</v>
+        <v>2359</v>
       </c>
       <c r="F1278" t="s">
-        <v>218</v>
+        <v>2360</v>
       </c>
       <c r="G1278" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="H1278" t="s">
         <v>4</v>
@@ -44662,13 +44668,13 @@
         <v>1278</v>
       </c>
       <c r="E1279" t="s">
-        <v>1067</v>
+        <v>217</v>
       </c>
       <c r="F1279" t="s">
-        <v>1068</v>
+        <v>218</v>
       </c>
       <c r="G1279" t="n">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="H1279" t="s">
         <v>4</v>
@@ -44691,13 +44697,13 @@
         <v>1279</v>
       </c>
       <c r="E1280" t="s">
-        <v>2359</v>
+        <v>1067</v>
       </c>
       <c r="F1280" t="s">
-        <v>2360</v>
+        <v>1068</v>
       </c>
       <c r="G1280" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H1280" t="s">
         <v>4</v>
@@ -44807,13 +44813,13 @@
         <v>1283</v>
       </c>
       <c r="E1284" t="s">
-        <v>295</v>
+        <v>2367</v>
       </c>
       <c r="F1284" t="s">
-        <v>296</v>
+        <v>2368</v>
       </c>
       <c r="G1284" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1284" t="s">
         <v>4</v>
@@ -44836,13 +44842,13 @@
         <v>1284</v>
       </c>
       <c r="E1285" t="s">
-        <v>2367</v>
+        <v>295</v>
       </c>
       <c r="F1285" t="s">
-        <v>2368</v>
+        <v>296</v>
       </c>
       <c r="G1285" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1285" t="s">
         <v>4</v>
@@ -45039,13 +45045,13 @@
         <v>1291</v>
       </c>
       <c r="E1292" t="s">
-        <v>11</v>
+        <v>2381</v>
       </c>
       <c r="F1292" t="s">
-        <v>12</v>
+        <v>2382</v>
       </c>
       <c r="G1292" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1292" t="s">
         <v>4</v>
@@ -45068,13 +45074,13 @@
         <v>1292</v>
       </c>
       <c r="E1293" t="s">
-        <v>2381</v>
+        <v>11</v>
       </c>
       <c r="F1293" t="s">
-        <v>2382</v>
+        <v>12</v>
       </c>
       <c r="G1293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H1293" t="s">
         <v>4</v>
@@ -45103,7 +45109,7 @@
         <v>2384</v>
       </c>
       <c r="G1294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1294" t="s">
         <v>4</v>
@@ -45161,7 +45167,7 @@
         <v>2388</v>
       </c>
       <c r="G1296" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1296" t="s">
         <v>4</v>
@@ -45219,7 +45225,7 @@
         <v>2392</v>
       </c>
       <c r="G1298" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1298" t="s">
         <v>4</v>
@@ -45393,7 +45399,7 @@
         <v>2404</v>
       </c>
       <c r="G1304" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="H1304" t="s">
         <v>4</v>
@@ -45416,18 +45422,47 @@
         <v>1304</v>
       </c>
       <c r="E1305" t="s">
-        <v>2403</v>
+        <v>2405</v>
       </c>
       <c r="F1305" t="s">
+        <v>2406</v>
+      </c>
+      <c r="G1305" t="n">
+        <v>22</v>
+      </c>
+      <c r="H1305" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1305" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:9">
+      <c r="A1306" s="1" t="n">
+        <v>1304</v>
+      </c>
+      <c r="B1306" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1306" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1306" t="n">
+        <v>1305</v>
+      </c>
+      <c r="E1306" t="s">
         <v>2405</v>
       </c>
-      <c r="G1305" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1305" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1305" t="n">
+      <c r="F1306" t="s">
+        <v>2407</v>
+      </c>
+      <c r="G1306" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1306" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1306" t="n">
         <v>3</v>
       </c>
     </row>
